--- a/soal.xlsx
+++ b/soal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fariz Armesta\Documents\GitHub\test-maker-jp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D034645-4EC0-4999-95DF-940A86266F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96747CC7-1DDE-454B-A10B-D2F534C782B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="15">
   <si>
     <t>案内</t>
   </si>
@@ -42,7 +42,7 @@
     <t>漢字</t>
   </si>
   <si>
-    <t>彼は今、新薬の研究開発に・挑んで・いる。</t>
+    <t>彼は今、新薬の研究開発に|挑んで|いる。</t>
   </si>
   <si>
     <t>はげんで</t>
@@ -57,7 +57,7 @@
     <t>いどんで</t>
   </si>
   <si>
-    <t>住民が建設会社を相手に、・訴訟・を起こした。</t>
+    <t>住民が建設会社を相手に、|訴訟|を起こした。</t>
   </si>
   <si>
     <t>そしょう</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>問題２＿＿＿の言葉の読み方として最もよいものを、１・２・３・４から一つ選びなさい</t>
+  </si>
+  <si>
+    <t>彼は今、新薬の研究開発に|挑んで|いるうううううううううううううううううううううううううううううううううううううううう。</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
   <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -413,7 +416,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>

--- a/soal.xlsx
+++ b/soal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fariz Armesta\Documents\GitHub\test-maker-jp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96747CC7-1DDE-454B-A10B-D2F534C782B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FAE316-6429-45D5-B552-3CEBD81F6B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="21">
   <si>
     <t>案内</t>
   </si>
@@ -42,40 +42,58 @@
     <t>漢字</t>
   </si>
   <si>
+    <t>彼は今、新薬の研究開発に|挑んで|いるうううううううううううううううううううううううううううううううううううううううう。</t>
+  </si>
+  <si>
+    <t>はげんで</t>
+  </si>
+  <si>
+    <t>のぞんで</t>
+  </si>
+  <si>
+    <t>からんで</t>
+  </si>
+  <si>
+    <t>いどんで</t>
+  </si>
+  <si>
+    <t>住民が建設会社を相手に、|訴訟|を起こした。</t>
+  </si>
+  <si>
+    <t>そしょう</t>
+  </si>
+  <si>
+    <t>せきしょう</t>
+  </si>
+  <si>
+    <t>そこう</t>
+  </si>
+  <si>
+    <t>せっこう</t>
+  </si>
+  <si>
     <t>彼は今、新薬の研究開発に|挑んで|いる。</t>
   </si>
   <si>
-    <t>はげんで</t>
-  </si>
-  <si>
-    <t>のぞんで</t>
-  </si>
-  <si>
-    <t>からんで</t>
-  </si>
-  <si>
-    <t>いどんで</t>
-  </si>
-  <si>
-    <t>住民が建設会社を相手に、|訴訟|を起こした。</t>
-  </si>
-  <si>
-    <t>そしょう</t>
-  </si>
-  <si>
-    <t>せきしょう</t>
-  </si>
-  <si>
-    <t>そこう</t>
-  </si>
-  <si>
-    <t>せっこう</t>
-  </si>
-  <si>
-    <t>問題２＿＿＿の言葉の読み方として最もよいものを、１・２・３・４から一つ選びなさい</t>
-  </si>
-  <si>
-    <t>彼は今、新薬の研究開発に|挑んで|いるうううううううううううううううううううううううううううううううううううううううう。</t>
+    <t>問題２　（　　　）に入れるのに最もよいものを、１・２・３・４から一つ選びなさい。</t>
+  </si>
+  <si>
+    <t>私は主張は単なる（　　）ではなく、確たる証拠に基づいている。</t>
+  </si>
+  <si>
+    <t>爆発</t>
+  </si>
+  <si>
+    <t>視線</t>
+  </si>
+  <si>
+    <t>推測</t>
+  </si>
+  <si>
+    <t>推移</t>
+  </si>
+  <si>
+    <t>白</t>
   </si>
 </sst>
 </file>
@@ -391,7 +409,7 @@
   <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -416,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -456,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -496,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -536,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -576,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -616,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -656,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -696,127 +714,127 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
